--- a/medicine/Sexualité et sexologie/Prostitution_au_Qatar/Prostitution_au_Qatar.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_au_Qatar/Prostitution_au_Qatar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution au Qatar est illégale[1] et passible de sévères sanctions de plusieurs années de prison[2],[3]. La prostitution a normalement lieu dans les bars, les discothèques et les hôtels. Il y a des répressions occasionnelles et les prostituées sont arrêtées et expulsées[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution au Qatar est illégale et passible de sévères sanctions de plusieurs années de prison,. La prostitution a normalement lieu dans les bars, les discothèques et les hôtels. Il y a des répressions occasionnelles et les prostituées sont arrêtées et expulsées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Situation juridique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Comme d'autres pays du Golfe, la prostitution et les activités connexes sont illégales. Le chapitre 6 du Code pénal traite de l'incitation à la débauche, à la dissipation et à la fornication[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Comme d'autres pays du Golfe, la prostitution et les activités connexes sont illégales. Le chapitre 6 du Code pénal traite de l'incitation à la débauche, à la dissipation et à la fornication :
 Article 294
 Quiconque incite à la débauche, à la dissipation ou à l'adultère en public par des paroles, des gestes ou tout autre moyen est passible d'une peine d'emprisonnement d'au moins six mois et d'au plus trois ans.
 Article 295
@@ -561,9 +575,11 @@
           <t>Trafic sexuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Qatar est répertorié par le Département d'État américain comme pays de niveau 2 pour le trafic sexuel[6]. C'est une destination pour les hommes et les femmes victimes de la traite à des fins de servitude involontaire et, dans une moindre mesure, d'exploitation sexuelle commerciale. Le pays est une destination pour les femmes de Chine, d'Indonésie, des Philippines, du Maroc, du Sri Lanka, du Liban, d'Inde, d'Afrique et d'Europe de l'Est victimes de la traite à des fins d'exploitation sexuelle commerciale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Qatar est répertorié par le Département d'État américain comme pays de niveau 2 pour le trafic sexuel. C'est une destination pour les hommes et les femmes victimes de la traite à des fins de servitude involontaire et, dans une moindre mesure, d'exploitation sexuelle commerciale. Le pays est une destination pour les femmes de Chine, d'Indonésie, des Philippines, du Maroc, du Sri Lanka, du Liban, d'Inde, d'Afrique et d'Europe de l'Est victimes de la traite à des fins d'exploitation sexuelle commerciale.
 </t>
         </is>
       </c>
